--- a/biology/Botanique/Lychnodiscus_grandifolius/Lychnodiscus_grandifolius.xlsx
+++ b/biology/Botanique/Lychnodiscus_grandifolius/Lychnodiscus_grandifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lychnodiscus grandifolius Radlk. est une espèce de plantes à fleurs de la famille des Sapindaceae et du genre Lychnodiscus originaire d'Afrique tropicale que l’on trouve principalement au Cameroun et au Gabon, également au Nigeria[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lychnodiscus grandifolius Radlk. est une espèce de plantes à fleurs de la famille des Sapindaceae et du genre Lychnodiscus originaire d'Afrique tropicale que l’on trouve principalement au Cameroun et au Gabon, également au Nigeria,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lychnodiscus grandifolius est un arbre pouvant atteindre 6 à 10 mètres de haut, se développant dans les zones humides, proches des rivières ou dans des marécages[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lychnodiscus grandifolius est un arbre pouvant atteindre 6 à 10 mètres de haut, se développant dans les zones humides, proches des rivières ou dans des marécages.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord considérée comme endémique du Cameroun, l'espèce y est assez commune. Elle a été observée sur treize sites dans six régions (Nord-Ouest, Sud-Ouest, Littoral, Centre, Sud, Est[5]).
-À partir de 2012, d'autres spécimens ont été découverts dans plusieurs provinces du Gabon[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord considérée comme endémique du Cameroun, l'espèce y est assez commune. Elle a été observée sur treize sites dans six régions (Nord-Ouest, Sud-Ouest, Littoral, Centre, Sud, Est).
+À partir de 2012, d'autres spécimens ont été découverts dans plusieurs provinces du Gabon.
 </t>
         </is>
       </c>
